--- a/domace_naloge/1.naloga/poraba_casa.xlsx
+++ b/domace_naloge/1.naloga/poraba_casa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\2.Letnik\4.semester\Testiranje_in_kakovost\domace_naloge\1.naloga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1E772-C594-42F5-9A12-60DFCB47D917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687581DE-DE5F-42EB-A4BA-25BB731F650C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{323CC0E3-87DC-4E47-A536-8940BC44A318}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{323CC0E3-87DC-4E47-A536-8940BC44A318}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">Izvajalec: </t>
   </si>
@@ -104,15 +104,9 @@
     <t>5+21</t>
   </si>
   <si>
-    <t>Kodiranje(T)</t>
-  </si>
-  <si>
     <t>3+16</t>
   </si>
   <si>
-    <t>Kodiranje(P)</t>
-  </si>
-  <si>
     <t>Pisanje razreda za binomsko kopico in metod asList</t>
   </si>
   <si>
@@ -141,6 +135,9 @@
   </si>
   <si>
     <t>Testiranje programa, sprožanje testov, odpravljanje napak</t>
+  </si>
+  <si>
+    <t>Kodiranje(T+P)</t>
   </si>
 </sst>
 </file>
@@ -279,7 +276,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A346C6E8-C9FB-4E8F-8588-7A230B92F584}" name="Table11" displayName="Table11" ref="A4:J11" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A4:J11" xr:uid="{CEF50920-599D-412D-B049-C8F7BC367BCE}"/>
+  <autoFilter ref="A4:J11" xr:uid="{CEF50920-599D-412D-B049-C8F7BC367BCE}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E85DB5BF-3411-4158-A7CE-A14DAB9898E9}" name="Št." dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{0C1FE40F-FA89-4F3D-B8DD-16C5E85A75FA}" name="Datum" dataDxfId="8"/>
@@ -598,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
@@ -765,16 +773,16 @@
         <v>54.000000000000028</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="5">
-        <v>543</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,23 +799,23 @@
         <v>0.66388888888888886</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="9">
         <f>((D8-C8)*24*60) - 19</f>
         <v>168.99999999999997</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="5">
-        <v>412</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -824,17 +832,17 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9">
         <f>((D9-C9)*24*60) - 24</f>
         <v>76.000000000000128</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>11</v>
@@ -862,10 +870,10 @@
         <v>125.99999999999996</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>11</v>
@@ -895,10 +903,10 @@
         <v>87</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>11</v>
